--- a/xlsx/Global.xlsx
+++ b/xlsx/Global.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mcode\egen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\git_work\AAA\Fantastic\Tools\egen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14835" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="JobType" sheetId="2" r:id="rId1"/>
     <sheet name="!Vector3" sheetId="3" r:id="rId2"/>
+    <sheet name="CareerType" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>字段名</t>
   </si>
@@ -215,6 +216,39 @@
   </si>
   <si>
     <t>!id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>num</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +312,12 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -743,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
@@ -818,4 +858,75 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>